--- a/biology/Botanique/Fraise_de_Cachoubie/Fraise_de_Cachoubie.xlsx
+++ b/biology/Botanique/Fraise_de_Cachoubie/Fraise_de_Cachoubie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fraise de Cachoubie  (en polonais Truskawka kaszubska également Kaszëbskô Malena ) est une variété de fraise bénéficiant depuis 2009 de  l'indication géographique protégée.
 L’Union européenne a enregistré l’IGP (indication géographique protégée) « truskawka kaszubska » ou « kaszëbskô malëna » (« fraise de Cachoubie » en polonais et en langue cachoube) le 27 novembre 2009 (Règlement de la Commission européenne (CE) n ° 1155/2009 du 27 novembre 2009)
@@ -513,7 +525,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fraises de Cachoubie doivent être cultivées dans une région délimitée qui inclut une partie du bassin de la Slupia et, dans la Voïvodie de Poméranie,   certaines communes du powiat de Gdańsk , du Powiat de Wejherowo et du powiat de Lębork.  
  Alimentation et gastronomie   Portail de la botanique   Portail des plantes utiles                   </t>
